--- a/LLAFramework/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/SoundConfig.xlsx
+++ b/LLAFramework/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/SoundConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SoundConfig" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,11 +51,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>索引</t>
   </si>
   <si>
+    <t>编号</t>
+  </si>
+  <si>
     <t>路径</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
   <si>
     <t>Path</t>
@@ -1131,22 +1137,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="7.37962962962963" customWidth="1"/>
-    <col min="2" max="2" width="26.3518518518519" customWidth="1"/>
-    <col min="3" max="3" width="43.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="12.2592592592593" customWidth="1"/>
-    <col min="5" max="5" width="17.537037037037" customWidth="1"/>
+    <col min="2" max="2" width="15.2583333333333" customWidth="1"/>
+    <col min="3" max="3" width="26.35" customWidth="1"/>
+    <col min="4" max="4" width="43.1416666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.2583333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.5333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,365 +1165,431 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100003</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100004</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B8" s="1">
+        <v>100005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B9" s="1">
+        <v>100006</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" s="1">
+        <v>100007</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B11" s="1">
+        <v>100008</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B12" s="1">
+        <v>110009</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>100001</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>100002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>100003</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>100004</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>100005</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>100006</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>100007</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>100008</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>110009</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="B13" s="1">
         <v>110010</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
         <v>110011</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
         <v>120012</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
         <v>120013</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="B17" s="1">
         <v>120014</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
         <v>120015</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
         <v>120016</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
         <v>120017</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
         <v>120018</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1">
         <v>3</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
         <v>120019</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
+      <c r="F22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
